--- a/Unifr/pos/metadata/treated/mapp_dbgi_ALC_pos_metadata.xlsx
+++ b/Unifr/pos/metadata/treated/mapp_dbgi_ALC_pos_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lecab\gitrepo\plantes_ornementales\ornamental\pos\metadata\treated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lecab\gitrepo\plantes_ornementales\ornamental\Unifr\pos\metadata\treated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B09A6-83CE-484F-BA9F-D9B289BA5B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31059530-E118-4226-BF8A-84DB9B45164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="345" windowWidth="18015" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -807,7 +807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3A7122-0EFA-404D-B507-9949E290F87C}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
